--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportIngList.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportIngList.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Liste des ing" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Ingredients List" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Liste des ing'!$B$3:$K$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Ingredients List'!$B$3:$O$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Products!$B$3:$H$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -57,16 +57,13 @@
     <t xml:space="preserve">bcpg:legalName</t>
   </si>
   <si>
-    <t xml:space="preserve">bcpg:legalName_en</t>
-  </si>
-  <si>
     <t xml:space="preserve">#</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Code</t>
+    <t xml:space="preserve">BeCPG Code</t>
   </si>
   <si>
     <t xml:space="preserve">ERP Code</t>
@@ -84,12 +81,15 @@
     <t xml:space="preserve">Legal name</t>
   </si>
   <si>
-    <t xml:space="preserve">British legal name</t>
-  </si>
-  <si>
     <t xml:space="preserve">bcpg:ingList</t>
   </si>
   <si>
+    <t xml:space="preserve">entity|bcpg:code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity|bcpg:erpCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">bcpg:depthLevel</t>
   </si>
   <si>
@@ -99,6 +99,9 @@
     <t xml:space="preserve">bcpg:ingListQtyPerc</t>
   </si>
   <si>
+    <t xml:space="preserve">bcpg:ingListQtyPercWithYield</t>
+  </si>
+  <si>
     <t xml:space="preserve">bcpg:ingListIsGMO</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t xml:space="preserve">bcpg:ingListIsProcessingAid</t>
   </si>
   <si>
+    <t xml:space="preserve">bcpg:ingListIsSupport</t>
+  </si>
+  <si>
     <t xml:space="preserve">bcpg:ingListGeoOrigin</t>
   </si>
   <si>
@@ -117,34 +123,40 @@
     <t xml:space="preserve">bcpg:ingListBioOrigin</t>
   </si>
   <si>
-    <t xml:space="preserve">Produit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niveau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingrédient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pourcentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OGM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ionisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auxiliaire technologique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origine géo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pays de transf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origine bio.</t>
+    <t xml:space="preserve">beCPGCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity with yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ionized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographical Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological origin</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,8 +189,14 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -193,7 +211,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,12 +221,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF004254"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
@@ -252,20 +264,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -288,7 +300,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -354,24 +366,26 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -379,7 +393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -403,40 +417,35 @@
       </c>
       <c r="H2" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="AMJ3" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:H3"/>
@@ -457,112 +466,137 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="26.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="50.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="1" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K3"/>
+  <autoFilter ref="B3:O3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
